--- a/Solo Bowl/EH (Solo Bowl).xlsx
+++ b/Solo Bowl/EH (Solo Bowl).xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CSM Projects\Solo Bowl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C0BCDD-FF76-4A66-813F-B72F5411500D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E47F2F1-9924-4E15-B11D-49FB9691D5E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -398,7 +398,7 @@
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Solo Bowl/EH (Solo Bowl).xlsx
+++ b/Solo Bowl/EH (Solo Bowl).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CSM Projects\Solo Bowl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E47F2F1-9924-4E15-B11D-49FB9691D5E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6916C34F-5E07-4C5B-B2E8-3B42BA60544D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Location</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>Kiribathgoda</t>
+  </si>
+  <si>
+    <t>Pita Kotte</t>
   </si>
 </sst>
 </file>
@@ -395,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -451,6 +454,11 @@
         <v>8</v>
       </c>
     </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
